--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H2">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>0.206113767358</v>
+        <v>0.12656200847</v>
       </c>
       <c r="R2">
-        <v>1.855023906222</v>
+        <v>1.13905807623</v>
       </c>
       <c r="S2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="T2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H3">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>2.203257731844</v>
+        <v>2.119632782063333</v>
       </c>
       <c r="R3">
-        <v>19.829319586596</v>
+        <v>19.07669503857</v>
       </c>
       <c r="S3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="T3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H4">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>1.144753257296</v>
+        <v>2.508075843415</v>
       </c>
       <c r="R4">
-        <v>10.302779315664</v>
+        <v>22.572682590735</v>
       </c>
       <c r="S4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="T4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H5">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>2.361229455244001</v>
+        <v>2.241490143058889</v>
       </c>
       <c r="R5">
-        <v>21.251065097196</v>
+        <v>20.17341128753</v>
       </c>
       <c r="S5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="T5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
     </row>
   </sheetData>
